--- a/biology/Médecine/Phénomènes_morbides/Phénomènes_morbides.xlsx
+++ b/biology/Médecine/Phénomènes_morbides/Phénomènes_morbides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nom%C3%A8nes_morbides</t>
+          <t>Phénomènes_morbides</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les phénomènes morbides (ou "phénomènes pathologiques") sont les phénomènes observables survenant au cours de la maladie.
 Ils peuvent avoir une expression clinique (signe clinique et symptôme clinique, étudiés par la sémiologie clinique), une expression morphologique (anomalie morphologique, étudiées par l'anatomo-pathologie, l'histopathologie et la cytopathologie) et une expression biologique (anomalie biologique étudiée par la biologie clinique). 
